--- a/diaries/diary-xiling-li.xlsx
+++ b/diaries/diary-xiling-li.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lixiling/Documents/UCI/courses/265p/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B910B3-F555-9A4A-B5AC-BC1B98A56402}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230F6064-9E18-C14A-9740-12812AE68104}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="6040" windowWidth="29040" windowHeight="17800" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
+    <workbookView xWindow="3900" yWindow="2760" windowWidth="28060" windowHeight="17540" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -48,39 +48,18 @@
     <t>Participants</t>
   </si>
   <si>
-    <t>&lt;what day?&gt;</t>
-  </si>
-  <si>
-    <t>&lt;what time?&gt;</t>
-  </si>
-  <si>
     <t>Reflection</t>
   </si>
   <si>
-    <t>&lt;as applicable, with whom?&gt;</t>
-  </si>
-  <si>
     <t>Your Overall Mood</t>
   </si>
   <si>
     <t>Goal</t>
   </si>
   <si>
-    <t>&lt;what did you want to accomplish?&gt;</t>
-  </si>
-  <si>
     <t>Achievements</t>
   </si>
   <si>
-    <t>&lt;what did you actually accomplish?&gt;</t>
-  </si>
-  <si>
-    <t>&lt;what insight(s) did you gain?&gt;</t>
-  </si>
-  <si>
-    <t>&lt;how did you feel during the activity?&gt;</t>
-  </si>
-  <si>
     <t>Etc.</t>
   </si>
   <si>
@@ -109,6 +88,36 @@
   </si>
   <si>
     <t>https://github.com/xilingl1/</t>
+  </si>
+  <si>
+    <t>Jan 16 2020</t>
+  </si>
+  <si>
+    <t>Learn about code reading strategy</t>
+  </si>
+  <si>
+    <t>Learned different styles and discovered my own preference</t>
+  </si>
+  <si>
+    <t>Listening to other students' reading strategy surprised me, because it is so different from me. I thought, 'Very organised thinking, but why bother that much of rest of the code?' Then I am happy I volunteered to try reading code during class. Because of that my learning experience enhanced. Thinking out loud made me realized clearly what my reading strategy is, and the benefit of other's strategy. And I enjoyed the guest talk. Made me realize that I should do more research into the industry.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I enjoyed it all the way, I cannot thinking  of ditching any part of the class. </t>
+  </si>
+  <si>
+    <t>Jan 21 2020</t>
+  </si>
+  <si>
+    <t>frustrated -&gt; pull myself  up again -&gt; still a little confused, but encouraged</t>
+  </si>
+  <si>
+    <t>Homework &amp; Pull Request</t>
+  </si>
+  <si>
+    <t>Both done.</t>
+  </si>
+  <si>
+    <t>I spend almost whole day trying to finish all the homework. Reading code is still not easy to me. During the code reading I gradually refined my reading strategy, I lowered my intent to do opportunistic comprehension and do more systematic comprehension. I think things work out better. After created a wrong pull request I spent some time learning more about Git &amp; Github. I found a video on youtube which is quite helpful.</t>
   </si>
 </sst>
 </file>
@@ -602,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F15" sqref="F14:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -645,7 +654,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -658,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -671,7 +680,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -708,90 +717,86 @@
         <v>6</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B10" s="10">
         <v>0.95833333333333337</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="238" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="10">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="E11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="7" t="s">
+    </row>
+    <row r="12" spans="1:7" ht="204" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="B12" s="10">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="C12" s="7"/>
       <c r="D12" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>

--- a/diaries/diary-xiling-li.xlsx
+++ b/diaries/diary-xiling-li.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lixiling/Documents/UCI/courses/265p/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230F6064-9E18-C14A-9740-12812AE68104}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C6D5BD-0855-FD4A-A55F-EB22C2285F7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2760" windowWidth="28060" windowHeight="17540" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="28060" windowHeight="17540" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Achievements</t>
   </si>
   <si>
-    <t>Etc.</t>
-  </si>
-  <si>
     <t>Xiling Li</t>
   </si>
   <si>
@@ -118,6 +115,51 @@
   </si>
   <si>
     <t>I spend almost whole day trying to finish all the homework. Reading code is still not easy to me. During the code reading I gradually refined my reading strategy, I lowered my intent to do opportunistic comprehension and do more systematic comprehension. I think things work out better. After created a wrong pull request I spent some time learning more about Git &amp; Github. I found a video on youtube which is quite helpful.</t>
+  </si>
+  <si>
+    <t>Jan 29 2020</t>
+  </si>
+  <si>
+    <t>Jan 30 2020</t>
+  </si>
+  <si>
+    <t>Working on homework</t>
+  </si>
+  <si>
+    <t>Getting started on the homework</t>
+  </si>
+  <si>
+    <t>Jan 24 2020</t>
+  </si>
+  <si>
+    <t>Face the challenge and go for it!</t>
+  </si>
+  <si>
+    <t>Foobar team</t>
+  </si>
+  <si>
+    <t>We realize that our selected project might not be a good choice because there is literally no comment in it(and other reasons)! After searching for quite a long time, we decided to request to change to a better repo, but then was vetoed, because the repo well-explained itself. So we remain what we chose before.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two feature are carefully chosen and analyzed. </t>
+  </si>
+  <si>
+    <t>fascinated</t>
+  </si>
+  <si>
+    <t>encouraged</t>
+  </si>
+  <si>
+    <t>Lesson</t>
+  </si>
+  <si>
+    <t>Seems like all projects we chose have a somewhat similar UML.(some super long lines at first, and scattered chuncks)</t>
+  </si>
+  <si>
+    <t>This is the first time that our team actually work together. Interestingly that every person starts to act in different roles. Will see if the roles will be consistent in the future.</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
 </sst>
 </file>
@@ -611,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F15" sqref="F14:F15"/>
+    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -654,7 +696,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -667,7 +709,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -680,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -731,97 +773,133 @@
     </row>
     <row r="10" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="10">
         <v>0.95833333333333337</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="F10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="G10" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="238" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="10">
         <v>0.95833333333333337</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="F11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="204" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="10">
         <v>0.97916666666666663</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="F12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="10">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
+      <c r="B14" s="10">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="10">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="8"/>
+      <c r="F15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>

--- a/diaries/diary-xiling-li.xlsx
+++ b/diaries/diary-xiling-li.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lixiling/Documents/UCI/courses/265p/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5FC5A9-7218-6E4C-B317-756BAA53AB0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E51DDC-645A-DD4F-85B7-6B7E2190E5DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28020" windowHeight="17540" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="79">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -189,9 +189,6 @@
     <t>Reviewing reminds me that although I understand during the class, but I cannot articulate well. Also there are flaws in my understanding of terms.</t>
   </si>
   <si>
-    <t>Feels good to catch up what I lef tbehind.</t>
-  </si>
-  <si>
     <t>Feb 13 2020</t>
   </si>
   <si>
@@ -201,13 +198,70 @@
     <t>Mid-term</t>
   </si>
   <si>
-    <t>Continuing yesterday's feeling, I found that I cannot understand some of the questions precisely. Terms such as implemetation, abstraction, although I know what they mean, but I don’t what exactly is the meaning in certain scenarios.</t>
-  </si>
-  <si>
     <t>Feels ok, hope I got good score. Distracted after the exam and tried very hard to focus on lecture.</t>
   </si>
   <si>
     <t>Very impressed by the guest as they are very energetic and seems to have fun on everything related to programming.</t>
+  </si>
+  <si>
+    <t>Feb 20 2020</t>
+  </si>
+  <si>
+    <t>hw3</t>
+  </si>
+  <si>
+    <t>It was a very interesting experience reading the pull requests. As the repo owner is not so active communicating with the contributors, there are plenty of people "not happy" with how the repo is managed. And I came across an interesting comment, “Always code as if the person who ends up maintaining your code is a violent psychopath who knows where you live.”  After all, I realized that it is not easy to maintain an open source.</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>Feb 27 2020</t>
+  </si>
+  <si>
+    <t>hw4</t>
+  </si>
+  <si>
+    <t>During the practice of trying to figure out the architecture, I got quite confused. I have some idea of how to start, but I feel it would be too slow and have no idea where to go on. Then I decided to follow another student's lead. He assumed an architecture style and try to make sense to it. In the end, I found the way of follow directories and figure out the architecture bottom-up is what I am confident in.</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>good, tired</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continuing yesterday's feeling, I found that I cannot understand some of the questions precisely. Terms such as implemetation, abstraction, although I know what they mean, but I don’t what exactly is the meaning in certain scenarios. </t>
+  </si>
+  <si>
+    <t>Feels good to catch up what I left behind.</t>
+  </si>
+  <si>
+    <t>Remembered a lot if terms</t>
+  </si>
+  <si>
+    <t>Understanding more about the social context of an big open source project and what contributors expect from the repo owner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Another passionate guest, loved it. </t>
+  </si>
+  <si>
+    <t>March 2 2020</t>
+  </si>
+  <si>
+    <t>Design Pattern</t>
+  </si>
+  <si>
+    <t>During the past few days I was learning design patterns, A LOT of design patterns. After 2 round learning I start to find some patterns in the repo and luckily I did find some. And it also proved that the patterns are really useful because some patterns can be identified just by  the names classes are using. But still, with suddenly 23 patterns in my head, I should spend more time later to better remember and distinguish them.</t>
+  </si>
+  <si>
+    <t>Got a sense of what each design pattern is talking about.</t>
+  </si>
+  <si>
+    <t>final's pressure is coming…</t>
+  </si>
+  <si>
+    <t>It was a very interesting experience to figure out the architecture of Telegram together. We made quite a lot of assumption but got stuck or confused in the middle quite a few times. And as the Telegram website has massivce information but lack of organization, it also took us quite a lot of time to search for useful information on Telegram as well as other technical news websites to summarize what we found.</t>
   </si>
 </sst>
 </file>
@@ -375,11 +429,11 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -701,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -717,24 +771,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -825,7 +879,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
@@ -848,7 +902,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="221" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="204" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>20</v>
       </c>
@@ -869,7 +923,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="187" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="170" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>25</v>
       </c>
@@ -985,13 +1039,13 @@
       <c r="B17" s="8">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C17" s="13"/>
+      <c r="C17" s="12"/>
       <c r="D17" s="6" t="s">
         <v>41</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>44</v>
@@ -1005,82 +1059,140 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="C18" s="6"/>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="6"/>
+      <c r="E18" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="F18" s="6" t="s">
         <v>53</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B19" s="8">
         <v>0.91666666666666663</v>
       </c>
       <c r="C19" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="187" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
+      <c r="B20" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="170" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="8">
+        <v>0.91666666666666663</v>
+      </c>
       <c r="C21" s="6"/>
-      <c r="D21" s="7"/>
+      <c r="D21" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
+      <c r="F21" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="170" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
+      <c r="F22" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="8">
+        <v>0.91666666666666663</v>
+      </c>
       <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
+      <c r="D23" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
+      <c r="F23" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
+    <row r="24" spans="1:7" ht="170" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="8">
+        <v>0.91666666666666663</v>
+      </c>
       <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="7"/>
+      <c r="D24" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
